--- a/data/trans_orig/P21D_3_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Clase-trans_orig.xlsx
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3900</v>
+        <v>3566</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001813496504847828</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01007095143806669</v>
+        <v>0.009209472895739434</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1285,16 +1285,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3563</v>
+        <v>4181</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0007811156801354521</v>
+        <v>0.000781115680135452</v>
       </c>
       <c r="V13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.003963266080479198</v>
+        <v>0.004650777125526332</v>
       </c>
     </row>
     <row r="14">
@@ -1324,7 +1324,7 @@
         <v>386560</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>383362</v>
+        <v>383696</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>387262</v>
@@ -1333,7 +1333,7 @@
         <v>0.9981865034951523</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9899290485619326</v>
+        <v>0.9907905271042605</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1345,16 +1345,16 @@
         <v>898395</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>895534</v>
+        <v>894916</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>899097</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9992188843198646</v>
+        <v>0.9992188843198645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9960367339195211</v>
+        <v>0.9953492228744736</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4201</v>
+        <v>4166</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002806655155229263</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01579273830294804</v>
+        <v>0.01566294321845637</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4147</v>
+        <v>5027</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00336795451155172</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01065714656309341</v>
+        <v>0.01291890190991238</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1491,19 +1491,19 @@
         <v>2057</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5979</v>
+        <v>5112</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.003140045994389978</v>
+        <v>0.003140045994389976</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0008718747136185802</v>
+        <v>0.0008446725050886319</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009127176120779819</v>
+        <v>0.007803529395209577</v>
       </c>
     </row>
     <row r="17">
@@ -1520,16 +1520,16 @@
         <v>265260</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>261806</v>
+        <v>261841</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>266007</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.997193344844771</v>
+        <v>0.9971933448447707</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9842072616970522</v>
+        <v>0.9843370567815442</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1541,16 +1541,16 @@
         <v>387812</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>384976</v>
+        <v>384096</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>389123</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9966320454884484</v>
+        <v>0.9966320454884482</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.989342853436907</v>
+        <v>0.9870810980900887</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1562,19 +1562,19 @@
         <v>653073</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>649151</v>
+        <v>650018</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>654559</v>
+        <v>654577</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9968599540056101</v>
+        <v>0.99685995400561</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9908728238792209</v>
+        <v>0.9921964706047903</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9991281252863815</v>
+        <v>0.9991553274949113</v>
       </c>
     </row>
     <row r="18">
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4139</v>
+        <v>3996</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0004894218971849182</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.002713538953526821</v>
+        <v>0.002619814742307905</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -1856,19 +1856,19 @@
         <v>2013</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5403</v>
+        <v>5566</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001220147325288987</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0003382866349231094</v>
+        <v>0.0003394097155894653</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.00327524646453887</v>
+        <v>0.003374249078117158</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -1877,19 +1877,19 @@
         <v>2759</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>738</v>
+        <v>707</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7147</v>
+        <v>6481</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0008690787651823767</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0002325600501772084</v>
+        <v>0.0002228204171132357</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.002250811930378354</v>
+        <v>0.002041296677732298</v>
       </c>
     </row>
     <row r="23">
@@ -1906,7 +1906,7 @@
         <v>1524707</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1521315</v>
+        <v>1521458</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>1525454</v>
@@ -1915,7 +1915,7 @@
         <v>0.9995105781028152</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9972864610464723</v>
+        <v>0.9973801852576923</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -1927,19 +1927,19 @@
         <v>1647662</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1644272</v>
+        <v>1644109</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1649117</v>
+        <v>1649115</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.998779852674711</v>
+        <v>0.9987798526747109</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9967247535354611</v>
+        <v>0.9966257509218828</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9996617133650769</v>
+        <v>0.9996605902844106</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3736</v>
@@ -1948,19 +1948,19 @@
         <v>3172370</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3167982</v>
+        <v>3168648</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3174391</v>
+        <v>3174422</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9991309212348176</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9977491880696223</v>
+        <v>0.9979587033222688</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9997674399498229</v>
+        <v>0.9997771795828868</v>
       </c>
     </row>
     <row r="24">
